--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8847</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>009507</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>国金鑫意医药消费混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>86.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>009508</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>国金鑫意医药消费混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>86.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510660</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏上证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000706</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004892</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>590008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>590001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中邮核心优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002474</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮睿信增强债券</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002620</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>29.97</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001178</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源再融资主题精选股票</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.60</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>49.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>001178</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>前海开源再融资主题精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43.99</t>
+          <t>18.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.99</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>52.74</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>52.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510660</t>
+          <t>002311</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏上证医药卫生ETF</t>
+          <t>创金合信中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75.51</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>63.81</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002311</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信中证500指数增强A</t>
+          <t>前海开源恒远灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1388,15 +1708,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>91.28</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002407</t>
+          <t>510660</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源恒远灵活配置混合</t>
+          <t>华夏上证医药卫生ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>57.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2835,4 +2836,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.880000000000001</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.82</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.89</v>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2923,13 +3010,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>18</v>
       </c>
       <c r="D5" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
         <v>13.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3357,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3368,17 +3369,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3388,14 +3409,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.61</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3404,14 +3447,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.880000000000001</v>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6998</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3420,14 +3485,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.82</v>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3436,14 +3523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.89</v>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3452,13 +3561,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>18</v>
       </c>
       <c r="D6" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
         <v>13.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3680,7 +3681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,17 +3692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3711,14 +3732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.22</v>
       </c>
     </row>
     <row r="3">
@@ -3727,14 +3770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.61</v>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3743,14 +3808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3759,14 +3846,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.82</v>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3775,14 +3884,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.89</v>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3791,13 +3922,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>18</v>
       </c>
       <c r="D7" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
         <v>13.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>8.880000000000001</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>9.82</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>12.89</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>18</v>
       </c>
       <c r="D8" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
         <v>13.59</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2734,746 +2959,6 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>152.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.1568</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3347</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8405</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8083</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5437</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4409</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3682</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>52.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1008</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>63.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>39.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002316</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510660</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏上证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>43.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>164510</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3548,6 +3033,746 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>152.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164510</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富兰克林国海恒利债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>137.29</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600201-生物股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>4.61</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>8.880000000000001</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>9.82</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>12.89</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>18</v>
       </c>
       <c r="D9" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
         <v>13.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8847</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2056,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2378,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2959,746 +4190,6 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>152.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.1568</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3347</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8405</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8083</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5437</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4409</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3682</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>52.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1008</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>63.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>39.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002316</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510660</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏上证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>43.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>164510</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3773,26 +4264,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>137.29</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0935</t>
+          <t>8.1568</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3801,36 +4292,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590001</t>
+          <t>450009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮核心优选混合</t>
+          <t>国富中小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>49.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>86.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8171</t>
+          <t>1.3347</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3839,36 +4330,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>450009</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富中小盘股票</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>75.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4318</t>
+          <t>0.8405</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3877,36 +4368,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1177</t>
+          <t>0.8083</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3915,36 +4406,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002474</t>
+          <t>001178</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮睿信增强债券</t>
+          <t>前海开源再融资主题精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>18.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.06</t>
+          <t>80.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8847</t>
+          <t>0.5437</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3953,36 +4444,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8326</t>
+          <t>0.4409</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3991,32 +4482,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.65</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6285</t>
+          <t>0.3682</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4029,36 +4520,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.08</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>52.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5595</t>
+          <t>0.1008</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -4067,36 +4558,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>002311</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>创金合信中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3725</t>
+          <t>0.0631</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -4105,36 +4596,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>43.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2804</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -4143,36 +4634,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009507</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金鑫意医药消费混合A</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>63.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2464</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4181,36 +4672,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>002407</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>前海开源恒远灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>39.84</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1910</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -4219,36 +4710,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009508</t>
+          <t>002316</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国金鑫意医药消费混合C</t>
+          <t>创金合信中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -4257,36 +4748,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003843</t>
+          <t>510660</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合C</t>
+          <t>华夏上证医药卫生ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0241</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4295,32 +4786,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>510660</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏上证医药卫生ETF</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>43.99</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4333,36 +4824,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004891</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华润元大成长精选股票A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4371,36 +4862,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004892</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华润元大成长精选股票C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -4409,32 +4900,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H19" t="n">
